--- a/doc/ue_global.xlsx
+++ b/doc/ue_global.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1328016B-8AEF-4A3B-B22D-0479EAC967AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8C3A5-0EA3-4C85-A1CF-0A9CE2222914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>FUObjectHashTables</t>
   </si>
@@ -269,6 +269,22 @@
   </si>
   <si>
     <t>PC的UE编辑器开启移动端渲染管线</t>
+  </si>
+  <si>
+    <t>Gworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class UWorldProxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面有全局的World对象，每次切换场景的时候设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -708,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:D38"/>
+  <dimension ref="A2:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,123 +738,144 @@
     <col min="4" max="4" width="72.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="C19" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="C23" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>12</v>
+      <c r="D25" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -853,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B7EFE3-7CBF-44BB-89D0-E4CB0C88F561}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
